--- a/doc/tables/Allocate_MRFSS_1980-1989.xlsx
+++ b/doc/tables/Allocate_MRFSS_1980-1989.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="24">
   <si>
     <t>Estimate ratio of SLO catch (in numbers) to catch in CA counties north of SLO</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>Catch-weighted Avg.</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1235,7 +1238,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G15" s="13">
         <f>(D3*G2+D5*G4+D7*G6+D9*G8+D11*G10+D13*G12)/(D3+D5+D7+D9+D11+D13)</f>
